--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5087A4-1398-4A62-82DA-DB600E42120D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BA00D-D66B-4703-9FB1-8FC13BD9124F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U08M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Active Players</t>
   </si>
@@ -157,16 +157,46 @@
     <t>Robb, Nicole</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Historical Players</t>
+    <t>Randall, Brodie</t>
+  </si>
+  <si>
+    <t>Randall, Jessica</t>
+  </si>
+  <si>
+    <t>0421 114 072</t>
+  </si>
+  <si>
+    <t>jessica_theodore@hotmail.com</t>
+  </si>
+  <si>
+    <t>Randall, Mark</t>
+  </si>
+  <si>
+    <t>0423 442 051</t>
+  </si>
+  <si>
+    <t>Watt, Hamish</t>
+  </si>
+  <si>
+    <t>Watt, Jessica</t>
+  </si>
+  <si>
+    <t>0408 035 795</t>
+  </si>
+  <si>
+    <t>jessbell@hotmail.com</t>
+  </si>
+  <si>
+    <t>Watt, Gordon</t>
+  </si>
+  <si>
+    <t>0405 809 227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,6 +689,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -666,7 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,37 +1072,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1191,132 +1223,127 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
   </mergeCells>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BA00D-D66B-4703-9FB1-8FC13BD9124F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1123770-7180-46E5-8F26-7C81E6564811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -124,24 +121,6 @@
     <t>kylierocks@gmail.com</t>
   </si>
   <si>
-    <t>Rippon, Ethan</t>
-  </si>
-  <si>
-    <t>Rippon, Andrew</t>
-  </si>
-  <si>
-    <t>0412 244 056</t>
-  </si>
-  <si>
-    <t>chipsbricklaying@hotmail.com</t>
-  </si>
-  <si>
-    <t>Rippon, Venetta</t>
-  </si>
-  <si>
-    <t>0412 704 662</t>
-  </si>
-  <si>
     <t>Robb, Jacob</t>
   </si>
   <si>
@@ -191,6 +170,12 @@
   </si>
   <si>
     <t>0405 809 227</t>
+  </si>
+  <si>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Shishani, Anmar</t>
   </si>
 </sst>
 </file>
@@ -1054,11 +1039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1068,261 +1051,252 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
+      <c r="G11" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1331,7 +1305,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1123770-7180-46E5-8F26-7C81E6564811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2A419-1ED4-4024-9492-87EAF63C1128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -176,13 +176,28 @@
   </si>
   <si>
     <t>Shishani, Anmar</t>
+  </si>
+  <si>
+    <t>0476 686 056</t>
+  </si>
+  <si>
+    <t>suzan.nashqway@gmail.com</t>
+  </si>
+  <si>
+    <t>Slaney, Owen</t>
+  </si>
+  <si>
+    <t>0408 579 311</t>
+  </si>
+  <si>
+    <t>smileykylie274@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -326,6 +341,13 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -627,7 +649,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -670,8 +692,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,8 +705,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -717,6 +744,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1258,10 +1286,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1275,24 +1303,47 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1321,6 +1372,10 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{0152D217-5649-42D1-B745-FEB763EECEE6}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{78BACD77-95B3-48C6-A14E-C9C8F3CCF0A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2A419-1ED4-4024-9492-87EAF63C1128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740005B3-C2EC-4F6D-A570-FB6CCFDEC323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -178,26 +178,14 @@
     <t>Shishani, Anmar</t>
   </si>
   <si>
-    <t>0476 686 056</t>
-  </si>
-  <si>
-    <t>suzan.nashqway@gmail.com</t>
-  </si>
-  <si>
     <t>Slaney, Owen</t>
-  </si>
-  <si>
-    <t>0408 579 311</t>
-  </si>
-  <si>
-    <t>smileykylie274@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -341,13 +329,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -649,7 +630,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -692,9 +673,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,12 +685,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -744,7 +720,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1067,7 +1042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1286,10 +1263,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1303,16 +1280,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1372,10 +1349,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{0152D217-5649-42D1-B745-FEB763EECEE6}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{78BACD77-95B3-48C6-A14E-C9C8F3CCF0A5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740005B3-C2EC-4F6D-A570-FB6CCFDEC323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107758E5-7480-4B93-8379-3A0B5F3478BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U08M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Slaney, Owen</t>
+  </si>
+  <si>
+    <t>Kilpatrick, Claire</t>
   </si>
 </sst>
 </file>
@@ -1043,20 +1046,20 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1071,7 +1074,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1186,145 +1189,168 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1333,7 +1359,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107758E5-7480-4B93-8379-3A0B5F3478BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0017E09-F916-45CF-8447-21BBA19FFBA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U08M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -182,6 +182,60 @@
   </si>
   <si>
     <t>Kilpatrick, Claire</t>
+  </si>
+  <si>
+    <t>lbaker9@gmail.com</t>
+  </si>
+  <si>
+    <t>anya.fitzpatrick@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Hay, Wesley</t>
+  </si>
+  <si>
+    <t>Hay, Brooke</t>
+  </si>
+  <si>
+    <t>0423 388 454</t>
+  </si>
+  <si>
+    <t>ekoorb74@gmail.com</t>
+  </si>
+  <si>
+    <t>Hay, Gareth</t>
+  </si>
+  <si>
+    <t>0410 550 514</t>
+  </si>
+  <si>
+    <t>gareth_hay@bigpond.com.au</t>
+  </si>
+  <si>
+    <t>lyndlu2010@hotmail.com</t>
+  </si>
+  <si>
+    <t>mark.randall@live.com.au</t>
+  </si>
+  <si>
+    <t>gordon.watt@pmi.com</t>
+  </si>
+  <si>
+    <t>0421 764 031</t>
+  </si>
+  <si>
+    <t>dalekilpatrick444@gmail.com</t>
+  </si>
+  <si>
+    <t>0476 686 056</t>
+  </si>
+  <si>
+    <t>suzan.nashqway@gmail.com</t>
+  </si>
+  <si>
+    <t>0408 579 311</t>
+  </si>
+  <si>
+    <t>smileykylie274@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1045,21 +1099,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1126,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1169,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1140,226 +1192,240 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="G7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
+      <c r="G10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
+      <c r="G14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1369,11 +1435,9 @@
       <c r="G15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0017E09-F916-45CF-8447-21BBA19FFBA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579EF291-8B03-489F-896A-2E312197E141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U08M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>smileykylie274@gmail.com</t>
+  </si>
+  <si>
+    <t>Kershaw, Stevie</t>
+  </si>
+  <si>
+    <t>0432 556 992</t>
+  </si>
+  <si>
+    <t>kara.montoneri@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,16 +1277,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1289,16 +1300,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1312,85 +1323,85 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1404,35 +1415,49 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579EF291-8B03-489F-896A-2E312197E141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D896456-17EE-4710-81B1-7189279AA685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>kara.montoneri@gmail.com</t>
+  </si>
+  <si>
+    <t>Parmar, Ved</t>
+  </si>
+  <si>
+    <t>0434 903 100</t>
+  </si>
+  <si>
+    <t>sumeetp45@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,85 +1355,85 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1438,24 +1447,47 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>65</v>
       </c>
     </row>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D896456-17EE-4710-81B1-7189279AA685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC280A-BAAF-4711-BCEA-E2434A37FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,9 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/contact/U08M.xlsx
+++ b/contact/U08M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC280A-BAAF-4711-BCEA-E2434A37FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC799BFA-7206-42F3-BAF7-18EF8FB59D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
